--- a/slides/data.xlsx
+++ b/slides/data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuku.nobusue/kensyu/final/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D50DFAB-F756-A548-9F7F-B04B8A7BC341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9FC789-1083-184E-839F-43B6D28EA456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2000" windowWidth="25760" windowHeight="16000" xr2:uid="{053B4B79-83EC-4B48-A9D7-A6EFDE7EAD69}"/>
+    <workbookView xWindow="3040" yWindow="500" windowWidth="25760" windowHeight="15840" activeTab="1" xr2:uid="{053B4B79-83EC-4B48-A9D7-A6EFDE7EAD69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明変数" sheetId="1" r:id="rId1"/>
+    <sheet name="予測精度" sheetId="4" r:id="rId2"/>
+    <sheet name="敬称" sheetId="5" r:id="rId3"/>
+    <sheet name="モデル比較" sheetId="2" r:id="rId4"/>
+    <sheet name="対象データ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +39,558 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+  <si>
+    <t>Survived</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pclass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">生存フラグ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1は生存、0は死亡)</t>
+  </si>
+  <si>
+    <t>チケットの等級</t>
+    <rPh sb="5" eb="6">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（1 = 1等級、2 = 2等級、3 = 3等級）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SibSp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ticket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット料金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cabin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊した船室番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Embarked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗船した港</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兄弟姉妹や配偶者の数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船上で一緒に旅行していた数</t>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親や子供の数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船上で一緒に旅行していた数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PassengerID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗客ID</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠損数</t>
+    <rPh sb="0" eb="2">
+      <t>ケッソn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>精度</t>
+  </si>
+  <si>
+    <t>計算速度</t>
+  </si>
+  <si>
+    <t>過学習への耐性</t>
+  </si>
+  <si>
+    <t>解釈性</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>強い</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>低速</t>
+  </si>
+  <si>
+    <t>弱い</t>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族人数</t>
+    <rPh sb="0" eb="4">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗船港</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット料金グループ</t>
+    <rPh sb="4" eb="6">
+      <t>リョウキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pclassをカテゴリ変数として使用</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sexをカテゴリ変数として使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SibSp と Parch の合計を整数型で使用</t>
+    <rPh sb="18" eb="20">
+      <t>セイス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ageを実数型で使用</t>
+    <rPh sb="4" eb="6">
+      <t>ジッスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Embarkedをカテゴリ変数として使用</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fareを6グループに分けてカテゴリ化して使用</t>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fareを整数型として使用</t>
+    <rPh sb="5" eb="8">
+      <t>セイス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客室グループ</t>
+    <rPh sb="0" eb="2">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cabinの値が欠損値であるか否か</t>
+    <rPh sb="8" eb="11">
+      <t>ケッソn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量</t>
+    <rPh sb="0" eb="3">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬称</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前から敬称部分を抜き出して使用</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌキダセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬称</t>
+    <rPh sb="0" eb="1">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族の数</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地位</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>成人</t>
+  </si>
+  <si>
+    <t>一般市民</t>
+  </si>
+  <si>
+    <t>通常多い</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>既婚</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>通常少ない</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>未婚（少年）</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>高位貴族</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>聖職者</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>医師や学者</t>
+  </si>
+  <si>
+    <t>Mme</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>軍人（高位）</t>
+  </si>
+  <si>
+    <t>Lady</t>
+  </si>
+  <si>
+    <t>貴族</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>騎士</t>
+  </si>
+  <si>
+    <t>Mlle</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>軍人（一般）</t>
+  </si>
+  <si>
+    <t>Capt</t>
+  </si>
+  <si>
+    <t>the Countess</t>
+  </si>
+  <si>
+    <t>Jonkheer</t>
+  </si>
+  <si>
+    <t>低位貴族</t>
+  </si>
+  <si>
+    <t>精度(Accuracy)</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度の基準</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100%~90%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90%~80%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80%~70%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70%~60%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60%~50%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50%以下</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測能力が不足</t>
+    <rPh sb="0" eb="4">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測能力はほとんどない</t>
+    <rPh sb="0" eb="1">
+      <t>ヨソクノウリョウヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常に高い精度</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高精度</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウセイド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良好な精度</t>
+    <rPh sb="0" eb="2">
+      <t>リョウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずまずの精度</t>
+    <rPh sb="5" eb="7">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,21 +606,71 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -76,15 +679,174 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -95,6 +857,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E063CC26-7492-1F44-AC07-427331FE2C83}" name="テーブル6" displayName="テーブル6" ref="A1:B10" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:B10" xr:uid="{E063CC26-7492-1F44-AC07-427331FE2C83}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9FACE471-4253-6449-BA3D-B18B12C08A6F}" name="特徴量" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E8207669-B0FB-DD4D-AE41-2C649714A4F0}" name="説明"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B3094966-37DF-6B48-8037-9D0BFD7373FF}" name="テーブル68" displayName="テーブル68" ref="A1:B10" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:B10" xr:uid="{B3094966-37DF-6B48-8037-9D0BFD7373FF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{103ACD1A-11F3-3548-91FB-E96BD4FABA9A}" name="精度(Accuracy)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{633EAD70-C6BB-2448-AF45-CEE9DE353529}" name="精度の基準"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}" name="テーブル69" displayName="テーブル69" ref="A1:B18" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:B18" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{18CE09FE-DCEE-224E-9E4C-A52B73BB2705}" name="敬称" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F6464A25-B450-AD48-98F8-CB2CD7C21544}" name="性別" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FA12622-F810-E04D-9B1D-6F9A08238B92}" name="テーブル4" displayName="テーブル4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:E4" xr:uid="{6FA12622-F810-E04D-9B1D-6F9A08238B92}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{04993A53-46FE-8F4F-8BD8-CF4E87365A2F}" name="モデル"/>
+    <tableColumn id="2" xr3:uid="{99EDB344-4F65-7646-AFA4-A5F9E77DD6E1}" name="精度"/>
+    <tableColumn id="3" xr3:uid="{55FC7D23-272E-5947-90A4-ADF35803E210}" name="計算速度"/>
+    <tableColumn id="4" xr3:uid="{A57D9573-696C-F540-99FE-7BDBC216CEE5}" name="過学習への耐性"/>
+    <tableColumn id="5" xr3:uid="{5686F3B0-A09E-274F-8DA4-409F16782B20}" name="解釈性"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D516B9E-6F1A-3D4B-A663-184C07D20CD2}" name="テーブル2" displayName="テーブル2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E13" xr:uid="{3D516B9E-6F1A-3D4B-A663-184C07D20CD2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{18725752-BF20-CA49-BDD3-A7B510D4C5B7}" name="カラム名" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{386D5428-39BD-984C-A688-98D3A808916C}" name="説明" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1E6E325D-22B6-D140-B641-D8657654779A}" name="min" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{649DEBF6-36AA-1E49-96C9-A8C683F58380}" name="max" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AE7974DF-0201-7D47-95E8-4D0AB1443A43}" name="欠損数" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,13 +1217,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4BE90-49D2-C542-8AD2-6D643C668F4D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B6AB2-C767-7642-9C8D-9735F7CCFF8E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE45AC-40CC-DC42-8A3D-C5A988B36E57}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3592D419-CD7A-3A40-8BDD-1689CD0B6021}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E29B7-CCEE-8945-955C-CC387BCCC713}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="144" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.42</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>512</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/slides/data.xlsx
+++ b/slides/data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuku.nobusue/kensyu/final/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9FC789-1083-184E-839F-43B6D28EA456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8576B-ADA5-DC4A-9B09-A7EE5B8A1DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="500" windowWidth="25760" windowHeight="15840" activeTab="1" xr2:uid="{053B4B79-83EC-4B48-A9D7-A6EFDE7EAD69}"/>
+    <workbookView xWindow="1300" yWindow="3000" windowWidth="25760" windowHeight="15840" activeTab="6" xr2:uid="{053B4B79-83EC-4B48-A9D7-A6EFDE7EAD69}"/>
   </bookViews>
   <sheets>
     <sheet name="説明変数" sheetId="1" r:id="rId1"/>
     <sheet name="予測精度" sheetId="4" r:id="rId2"/>
-    <sheet name="敬称" sheetId="5" r:id="rId3"/>
-    <sheet name="モデル比較" sheetId="2" r:id="rId4"/>
-    <sheet name="対象データ" sheetId="3" r:id="rId5"/>
+    <sheet name="LGBM欠損値の扱い" sheetId="6" r:id="rId3"/>
+    <sheet name="敬称" sheetId="5" r:id="rId4"/>
+    <sheet name="モデル比較" sheetId="2" r:id="rId5"/>
+    <sheet name="対象データ" sheetId="3" r:id="rId6"/>
+    <sheet name="実データ例" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
   <si>
     <t>Survived</t>
     <phoneticPr fontId="1"/>
@@ -584,13 +586,125 @@
       <t>セイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習</t>
+  </si>
+  <si>
+    <t>予測（欠損既知）</t>
+  </si>
+  <si>
+    <t>常に右側の枝で予測</t>
+  </si>
+  <si>
+    <t>予測（欠損未知）</t>
+  </si>
+  <si>
+    <t>場面</t>
+    <rPh sb="0" eb="2">
+      <t>バメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割り振った側の枝で予測</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠損値をゼロに置換して予測</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に右側の枝に割振り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差を最も下げる枝に割振り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PassengerId</t>
+  </si>
+  <si>
+    <t>Survived</t>
+  </si>
+  <si>
+    <t>Pclass</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>SibSp</t>
+  </si>
+  <si>
+    <t>Parch</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Fare</t>
+  </si>
+  <si>
+    <t>Cabin</t>
+  </si>
+  <si>
+    <t>Embarked</t>
+  </si>
+  <si>
+    <t>Thomas, Master. Assad Alexander</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Hamalainen, Master. Viljo</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Baclini, Miss. Eugenie</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Baclini, Miss. Helene Barbara</t>
+  </si>
+  <si>
+    <t>Caldwell, Master. Alden Gates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -615,8 +729,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,11 +855,291 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -826,6 +1245,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -860,10 +1300,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E063CC26-7492-1F44-AC07-427331FE2C83}" name="テーブル6" displayName="テーブル6" ref="A1:B10" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E063CC26-7492-1F44-AC07-427331FE2C83}" name="テーブル6" displayName="テーブル6" ref="A1:B10" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A1:B10" xr:uid="{E063CC26-7492-1F44-AC07-427331FE2C83}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9FACE471-4253-6449-BA3D-B18B12C08A6F}" name="特徴量" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{9FACE471-4253-6449-BA3D-B18B12C08A6F}" name="特徴量" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{E8207669-B0FB-DD4D-AE41-2C649714A4F0}" name="説明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -871,10 +1311,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B3094966-37DF-6B48-8037-9D0BFD7373FF}" name="テーブル68" displayName="テーブル68" ref="A1:B10" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B3094966-37DF-6B48-8037-9D0BFD7373FF}" name="テーブル68" displayName="テーブル68" ref="A1:B10" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:B10" xr:uid="{B3094966-37DF-6B48-8037-9D0BFD7373FF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{103ACD1A-11F3-3548-91FB-E96BD4FABA9A}" name="精度(Accuracy)" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{103ACD1A-11F3-3548-91FB-E96BD4FABA9A}" name="精度(Accuracy)" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{633EAD70-C6BB-2448-AF45-CEE9DE353529}" name="精度の基準"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -882,18 +1322,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}" name="テーブル69" displayName="テーブル69" ref="A1:B18" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:B18" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18CE09FE-DCEE-224E-9E4C-A52B73BB2705}" name="敬称" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F6464A25-B450-AD48-98F8-CB2CD7C21544}" name="性別" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{965D7FC5-D8FC-394C-AFDC-CCCB6869070D}" name="テーブル3" displayName="テーブル3" ref="A1:C4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:C4" xr:uid="{965D7FC5-D8FC-394C-AFDC-CCCB6869070D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{228EC4EC-17FE-6048-90C6-3F0CC6E5E8B0}" name="場面" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1A116EA5-E31A-A347-95E6-81CE7A46A0A6}" name="数値" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{EC4089B4-6C27-A14E-9DAA-E51FBAA3A148}" name="カテゴリ" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FA12622-F810-E04D-9B1D-6F9A08238B92}" name="テーブル4" displayName="テーブル4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}" name="テーブル69" displayName="テーブル69" ref="A1:B18" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:B18" xr:uid="{63EF1207-2249-E846-BFE7-43825FB59F05}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{18CE09FE-DCEE-224E-9E4C-A52B73BB2705}" name="敬称" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F6464A25-B450-AD48-98F8-CB2CD7C21544}" name="性別" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FA12622-F810-E04D-9B1D-6F9A08238B92}" name="テーブル4" displayName="テーブル4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:E4" xr:uid="{6FA12622-F810-E04D-9B1D-6F9A08238B92}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{04993A53-46FE-8F4F-8BD8-CF4E87365A2F}" name="モデル"/>
@@ -906,15 +1358,36 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D516B9E-6F1A-3D4B-A663-184C07D20CD2}" name="テーブル2" displayName="テーブル2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D516B9E-6F1A-3D4B-A663-184C07D20CD2}" name="テーブル2" displayName="テーブル2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E13" xr:uid="{3D516B9E-6F1A-3D4B-A663-184C07D20CD2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{18725752-BF20-CA49-BDD3-A7B510D4C5B7}" name="カラム名" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{386D5428-39BD-984C-A688-98D3A808916C}" name="説明" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1E6E325D-22B6-D140-B641-D8657654779A}" name="min" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{649DEBF6-36AA-1E49-96C9-A8C683F58380}" name="max" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AE7974DF-0201-7D47-95E8-4D0AB1443A43}" name="欠損数" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18725752-BF20-CA49-BDD3-A7B510D4C5B7}" name="カラム名" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{386D5428-39BD-984C-A688-98D3A808916C}" name="説明" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1E6E325D-22B6-D140-B641-D8657654779A}" name="min" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{649DEBF6-36AA-1E49-96C9-A8C683F58380}" name="max" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AE7974DF-0201-7D47-95E8-4D0AB1443A43}" name="欠損数" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65569D77-0723-344F-BF8C-8D9522E9453C}" name="テーブル1" displayName="テーブル1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+  <autoFilter ref="A1:L6" xr:uid="{65569D77-0723-344F-BF8C-8D9522E9453C}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B917D37A-887D-9F40-BCEA-FBF9E5FAD640}" name="PassengerId" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B4AD5A95-D33F-2641-BCD6-E0DEB6256342}" name="Survived" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0FB3ED1E-2268-D143-8F66-9CFF80977F41}" name="Pclass" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E8507019-309A-C942-8FCD-08EF1C55F571}" name="Name" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E54A949B-9141-6C49-95F2-59D66E46A280}" name="Sex" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4351EB66-642B-E54C-A37B-261B1A664B26}" name="Age" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{3DF4D326-3CF6-E044-BED6-525E811964C5}" name="SibSp" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{F13B6FBE-459B-EE4F-9241-36513083BE59}" name="Parch" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{D85F30E7-AF87-624E-9E6F-6878CD9EFB89}" name="Ticket" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{D96E8FD0-CE04-8948-ABF4-BFA26B5524E3}" name="Fare" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{0091A720-E19A-E749-844C-520B07AF0FFE}" name="Cabin" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5F461F76-34BF-2444-BB87-F89A07952206}" name="Embarked" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B6AB2-C767-7642-9C8D-9735F7CCFF8E}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1406,317 +1879,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE45AC-40CC-DC42-8A3D-C5A988B36E57}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97684E2-BFB9-D242-8285-0AD5024DCE3B}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>80</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1730,6 +1947,332 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE45AC-40CC-DC42-8A3D-C5A988B36E57}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3592D419-CD7A-3A40-8BDD-1689CD0B6021}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1818,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E29B7-CCEE-8945-955C-CC387BCCC713}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2071,4 +2614,261 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13E67E-0D42-3448-8838-6A342D453E27}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13">
+        <v>804</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2625</v>
+      </c>
+      <c r="J2" s="13">
+        <v>8.5167000000000002</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13">
+        <v>756</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>250649</v>
+      </c>
+      <c r="J3" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13">
+        <v>645</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2666</v>
+      </c>
+      <c r="J4" s="13">
+        <v>19.258299999999998</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13">
+        <v>470</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2666</v>
+      </c>
+      <c r="J5" s="13">
+        <v>19.258299999999998</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13">
+        <v>79</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>248738</v>
+      </c>
+      <c r="J6" s="13">
+        <v>29</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>